--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_2_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_2_square_01_.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.90000000000045</v>
+        <v>25.02000000000047</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1999690347394086</v>
+        <v>8.593337816287239e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1999690347394086</v>
+        <v>8.593337816287239e-05</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>20.67582955995908</v>
+        <v>53.67632882321981</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-10.41770031009463, 51.769359430012784]</t>
+          <t>[24.340641318578164, 83.01201632786146]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1872018698454225</v>
+        <v>0.0006115349759960864</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1872018698454225</v>
+        <v>0.0006115349759960864</v>
       </c>
       <c r="P2" t="n">
-        <v>1.968605606753965</v>
+        <v>1.930868758062195</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-1.1132370364071935, 5.050448249915123]</t>
+          <t>[1.3270791789938867, 2.5346583371305043]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.2048273743882587</v>
+        <v>6.90180217421954e-08</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2048273743882587</v>
+        <v>6.90180217421954e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>53.05850916468261</v>
+        <v>71.68074204076299</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[36.653396661266996, 69.46362166809823]</t>
+          <t>[55.48929162273747, 87.87219245878852]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>5.370866462683921e-08</v>
+        <v>1.662536774915679e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>5.370866462683921e-08</v>
+        <v>1.662536774915679e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>17.09849849849881</v>
+        <v>17.3311711711715</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.885285285285375</v>
+        <v>14.92684684684713</v>
       </c>
       <c r="Z2" t="n">
-        <v>29.31171171171224</v>
+        <v>19.73549549549587</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.90000000000045</v>
+        <v>25.02000000000047</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0007875569218418477</v>
+        <v>1.009589872380534e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0007875569218418477</v>
+        <v>1.009589872380534e-05</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>47.59874861416869</v>
+        <v>48.98107567004523</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[19.10960409112083, 76.08789313721655]</t>
+          <t>[27.71931290437017, 70.24283843572029]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.001573041564075783</v>
+        <v>3.019052620145679e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001573041564075783</v>
+        <v>3.019052620145679e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>1.402552876377425</v>
+        <v>1.352237078121732</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.6855527512338089, 2.119553001521041]</t>
+          <t>[0.823921196436963, 1.8805529598065007]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.0002811119819843277</v>
+        <v>5.478438525496898e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0002811119819843277</v>
+        <v>5.478438525496898e-06</v>
       </c>
       <c r="T3" t="n">
-        <v>70.86200616753099</v>
+        <v>60.85717136621054</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[54.09012430764864, 87.63388802741335]</t>
+          <t>[47.93415777869399, 73.7801849537271]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>6.321521084373671e-11</v>
+        <v>2.654765296483674e-12</v>
       </c>
       <c r="W3" t="n">
-        <v>6.321521084373671e-11</v>
+        <v>2.654765296483674e-12</v>
       </c>
       <c r="X3" t="n">
-        <v>19.34174174174209</v>
+        <v>19.63531531531569</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.5003003003006</v>
+        <v>17.53153153153187</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.18318318318359</v>
+        <v>21.73909909909951</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.90000000000045</v>
+        <v>25.02000000000047</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0006337394243672856</v>
+        <v>3.13841457488806e-07</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0006337394243672856</v>
+        <v>3.13841457488806e-07</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>40.32743932800985</v>
+        <v>60.91876570400287</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[14.968745235594838, 65.68613342042485]</t>
+          <t>[37.974830095584906, 83.86270131242082]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.0024989588019797</v>
+        <v>2.867523763994129e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0024989588019797</v>
+        <v>2.867523763994129e-06</v>
       </c>
       <c r="P4" t="n">
-        <v>1.050342288587577</v>
+        <v>1.289342330302118</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.39623691126357663, 1.7044476659115784]</t>
+          <t>[0.8490790955648091, 1.7296055650394262]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.002287978266036328</v>
+        <v>4.417204322315627e-07</v>
       </c>
       <c r="S4" t="n">
-        <v>0.002287978266036328</v>
+        <v>4.417204322315627e-07</v>
       </c>
       <c r="T4" t="n">
-        <v>51.65575646335742</v>
+        <v>62.5039312101746</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[37.83984782865997, 65.47166509805487]</t>
+          <t>[49.022673827163715, 75.98518859318548]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.677021188584149e-09</v>
+        <v>4.247935336820774e-12</v>
       </c>
       <c r="W4" t="n">
-        <v>1.677021188584149e-09</v>
+        <v>4.247935336820774e-12</v>
       </c>
       <c r="X4" t="n">
-        <v>20.73753753753792</v>
+        <v>19.88576576576614</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.14534534534568</v>
+        <v>18.13261261261295</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.32972972973016</v>
+        <v>21.63891891891932</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.90000000000045</v>
+        <v>25.02000000000047</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0002605051135232683</v>
+        <v>0.0002553500664520536</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0002605051135232683</v>
+        <v>0.0002553500664520536</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>49.12878309135427</v>
+        <v>51.3471075009017</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[19.852397813081467, 78.40516836962708]</t>
+          <t>[20.368830162201533, 82.32538483960187]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.001507251128089804</v>
+        <v>0.001698851835206128</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001507251128089804</v>
+        <v>0.001698851835206128</v>
       </c>
       <c r="P5" t="n">
-        <v>1.025184389459731</v>
+        <v>0.9622896416401163</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.42139481039142357, 1.6289739685280393]</t>
+          <t>[0.3962369112635775, 1.5283423720166551]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.001342371809438303</v>
+        <v>0.001326070636130439</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001342371809438303</v>
+        <v>0.001326070636130439</v>
       </c>
       <c r="T5" t="n">
-        <v>71.03471045445895</v>
+        <v>57.72641187251071</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[55.33648223371637, 86.73293867520152]</t>
+          <t>[41.377209333205506, 74.0756144118159]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>8.75721717363831e-12</v>
+        <v>6.965927168423036e-09</v>
       </c>
       <c r="W5" t="n">
-        <v>8.75721717363831e-12</v>
+        <v>6.965927168423036e-09</v>
       </c>
       <c r="X5" t="n">
-        <v>20.83723723723762</v>
+        <v>21.18810810810851</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.44444444444479</v>
+        <v>18.93405405405441</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.23003003003045</v>
+        <v>23.4421621621626</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.90000000000045</v>
+        <v>25.02000000000047</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001157765281776801</v>
+        <v>0.001227991620024627</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001157765281776801</v>
+        <v>0.001227991620024627</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>47.40088065376682</v>
+        <v>35.45678358000428</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[16.750498051799667, 78.05126325573397]</t>
+          <t>[11.60023661464166, 59.313330545366895]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.003199121807266225</v>
+        <v>0.004468535133266061</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003199121807266225</v>
+        <v>0.004468535133266061</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5471843060306538</v>
+        <v>0.6100790538502698</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.11950002085727096, 1.2138686329185786]</t>
+          <t>[-0.05660527303765406, 1.2767633807381937]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.1052745317055614</v>
+        <v>0.0719077861605697</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1052745317055614</v>
+        <v>0.0719077861605697</v>
       </c>
       <c r="T6" t="n">
-        <v>64.46354067057862</v>
+        <v>53.58563341264479</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[47.707669777340236, 81.219411563817]</t>
+          <t>[40.993385762348666, 66.17788106294091]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>8.02185429193969e-10</v>
+        <v>5.164935146240168e-11</v>
       </c>
       <c r="W6" t="n">
-        <v>8.02185429193969e-10</v>
+        <v>5.164935146240168e-11</v>
       </c>
       <c r="X6" t="n">
-        <v>22.73153153153195</v>
+        <v>22.59063063063106</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.08948948948986</v>
+        <v>19.93585585585623</v>
       </c>
       <c r="Z6" t="n">
-        <v>25.37357357357404</v>
+        <v>25.24540540540588</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.90000000000045</v>
+        <v>25.02000000000047</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>7.666463568978266e-06</v>
+        <v>1.30391245917183e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>7.666463568978266e-06</v>
+        <v>1.30391245917183e-05</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>44.61060268946877</v>
+        <v>59.94571175488317</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[22.681967785728702, 66.53923759320884]</t>
+          <t>[29.72103298565699, 90.17039052410935]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.0001720457472600412</v>
+        <v>0.0002371882012612847</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0001720457472600412</v>
+        <v>0.0002371882012612847</v>
       </c>
       <c r="P7" t="n">
-        <v>0.672973801669885</v>
+        <v>0.5975001042863468</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.19497371824080645, 1.1509738850989635]</t>
+          <t>[0.11950002085726918, 1.0755001877154244]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.006828969098424897</v>
+        <v>0.01544312383558477</v>
       </c>
       <c r="S7" t="n">
-        <v>0.006828969098424897</v>
+        <v>0.01544312383558477</v>
       </c>
       <c r="T7" t="n">
-        <v>53.61482742132794</v>
+        <v>70.29840366933831</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[42.31443835722959, 64.9152164854263]</t>
+          <t>[54.73700508347652, 85.85980225520011]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.115640995725698e-12</v>
+        <v>9.198197759019422e-12</v>
       </c>
       <c r="W7" t="n">
-        <v>2.115640995725698e-12</v>
+        <v>9.198197759019422e-12</v>
       </c>
       <c r="X7" t="n">
-        <v>22.23303303303344</v>
+        <v>22.64072072072115</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.33873873873911</v>
+        <v>20.73729729729769</v>
       </c>
       <c r="Z7" t="n">
-        <v>24.12732732732777</v>
+        <v>24.54414414414461</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.90000000000045</v>
+        <v>25.02000000000047</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.193285030920421e-05</v>
+        <v>0.006228941441056346</v>
       </c>
       <c r="I8" t="n">
-        <v>1.193285030920421e-05</v>
+        <v>0.006228941441056346</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>57.96474725020062</v>
+        <v>30.11037121007906</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[31.3990098310678, 84.53048466933345]</t>
+          <t>[8.21207550109466, 52.00866691906346]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>6.687894196755195e-05</v>
+        <v>0.008129423892431653</v>
       </c>
       <c r="O8" t="n">
-        <v>6.687894196755195e-05</v>
+        <v>0.008129423892431653</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2704474156243464</v>
+        <v>0.3459211130078854</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.24528951649650033, 0.7861843477451931]</t>
+          <t>[-0.5786316799404627, 1.2704739059562336]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.2965251549579049</v>
+        <v>0.4550287583439983</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2965251549579049</v>
+        <v>0.4550287583439983</v>
       </c>
       <c r="T8" t="n">
-        <v>73.1608924254574</v>
+        <v>49.51186363445441</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[58.26369411298312, 88.05809073793169]</t>
+          <t>[37.070869907258945, 61.95285736164988]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>7.314149286230531e-13</v>
+        <v>3.271554138706279e-10</v>
       </c>
       <c r="W8" t="n">
-        <v>7.314149286230531e-13</v>
+        <v>3.271554138706279e-10</v>
       </c>
       <c r="X8" t="n">
-        <v>23.82822822822866</v>
+        <v>23.64252252252297</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.78438438438478</v>
+        <v>19.96090090090127</v>
       </c>
       <c r="Z8" t="n">
-        <v>25.87207207207254</v>
+        <v>27.32414414414466</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.84000000000013</v>
+        <v>22.81000000000013</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01172030282077929</v>
+        <v>0.03352612154866552</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01172030282077929</v>
+        <v>0.03352612154866552</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>41.27823040434541</v>
+        <v>34.79802890085635</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[7.0855103373283015, 75.47095047136253]</t>
+          <t>[-1.2623902474658735, 70.85844804917858]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.01908252324889426</v>
+        <v>0.05821411745729077</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01908252324889426</v>
+        <v>0.05821411745729077</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.2264210921506153</v>
+        <v>-0.8176317216550011</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.3522370781217328, 0.8993948938205021]</t>
+          <t>[-2.239053022378311, 0.6037895790683088]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.6873445607286195</v>
+        <v>0.2527491543615259</v>
       </c>
       <c r="S9" t="n">
-        <v>0.6873445607286195</v>
+        <v>0.2527491543615259</v>
       </c>
       <c r="T9" t="n">
-        <v>63.71636821940942</v>
+        <v>66.60064830222333</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[44.55740724097476, 82.87532919784408]</t>
+          <t>[48.219929968856796, 84.98136663558986]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.859290360035516e-08</v>
+        <v>3.692208538907948e-09</v>
       </c>
       <c r="W9" t="n">
-        <v>2.859290360035516e-08</v>
+        <v>3.692208538907948e-09</v>
       </c>
       <c r="X9" t="n">
-        <v>0.8230630630630635</v>
+        <v>2.968268268268286</v>
       </c>
       <c r="Y9" t="n">
-        <v>-3.269389389389413</v>
+        <v>-2.191951951951964</v>
       </c>
       <c r="Z9" t="n">
-        <v>4.915515515515541</v>
+        <v>8.128488488488536</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.84000000000013</v>
+        <v>22.81000000000013</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.171128736487947e-05</v>
+        <v>0.03720388370686301</v>
       </c>
       <c r="I10" t="n">
-        <v>1.171128736487947e-05</v>
+        <v>0.03720388370686301</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>51.63422555512405</v>
+        <v>34.34139270386621</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[29.225419784799413, 74.0430313254487]</t>
+          <t>[3.213642251000792, 65.46914315673162]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.009588837366017e-05</v>
+        <v>0.03135182433140637</v>
       </c>
       <c r="O10" t="n">
-        <v>3.009588837366017e-05</v>
+        <v>0.03135182433140637</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.08805264694746207</v>
+        <v>0.006289474781961069</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.6163685286322318, 0.44026323473730766]</t>
+          <t>[-1.2516054816103495, 1.2641844311742716]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.7386693409476197</v>
+        <v>0.992009540166557</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7386693409476197</v>
+        <v>0.992009540166557</v>
       </c>
       <c r="T10" t="n">
-        <v>62.07550375573696</v>
+        <v>66.7487811039892</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[48.236571963097234, 75.91443554837669]</t>
+          <t>[47.959941189287406, 85.537621018691]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.133093618932435e-11</v>
+        <v>6.000242303016989e-09</v>
       </c>
       <c r="W10" t="n">
-        <v>1.133093618932435e-11</v>
+        <v>6.000242303016989e-09</v>
       </c>
       <c r="X10" t="n">
-        <v>0.3200800800800856</v>
+        <v>22.7871671671673</v>
       </c>
       <c r="Y10" t="n">
-        <v>-1.600400400400405</v>
+        <v>18.2206006006007</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.240560560560576</v>
+        <v>27.35373373373389</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.84000000000013</v>
+        <v>22.81000000000013</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0115163743613752</v>
+        <v>0.0009750211794988806</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0115163743613752</v>
+        <v>0.0009750211794988806</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>29.01784459329481</v>
+        <v>49.70004369665472</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[5.69266934939818, 52.34301983719145]</t>
+          <t>[19.53364392789804, 79.8664434654114]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.0159078499134655</v>
+        <v>0.001799984570600266</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0159078499134655</v>
+        <v>0.001799984570600266</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1886842434588463</v>
+        <v>0.06918422260157797</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.3019212798660398, 0.9245527929483472]</t>
+          <t>[-0.7232895999255753, 0.8616580451287312]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.734411402510877</v>
+        <v>0.8612129119275067</v>
       </c>
       <c r="S11" t="n">
-        <v>0.734411402510877</v>
+        <v>0.8612129119275067</v>
       </c>
       <c r="T11" t="n">
-        <v>47.25451093697957</v>
+        <v>60.4965274774707</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[33.80748622918743, 60.70153564477171]</t>
+          <t>[42.53636868253717, 78.45668627240423]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>7.813482305607522e-09</v>
+        <v>2.130231324670717e-08</v>
       </c>
       <c r="W11" t="n">
-        <v>7.813482305607522e-09</v>
+        <v>2.130231324670717e-08</v>
       </c>
       <c r="X11" t="n">
-        <v>0.6858858858858916</v>
+        <v>22.55883883883896</v>
       </c>
       <c r="Y11" t="n">
-        <v>-3.360840840840857</v>
+        <v>19.68190190190201</v>
       </c>
       <c r="Z11" t="n">
-        <v>4.73261261261264</v>
+        <v>25.43577577577591</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.84000000000013</v>
+        <v>22.81000000000013</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0003271808968754453</v>
+        <v>0.0005327476473028225</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0003271808968754453</v>
+        <v>0.0005327476473028225</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>41.3548262757192</v>
+        <v>39.38033899684899</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[15.900877412525972, 66.80877513891242]</t>
+          <t>[14.270092041589265, 64.49058595210872]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.002053075414283567</v>
+        <v>0.002830166251793109</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002053075414283567</v>
+        <v>0.002830166251793109</v>
       </c>
       <c r="P12" t="n">
-        <v>0.8365001460008861</v>
+        <v>0.6729738016698859</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.2704474156243464, 1.4025528763774258]</t>
+          <t>[0.06918422260157708, 1.2767633807381946]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.004680931924202492</v>
+        <v>0.02973646041232425</v>
       </c>
       <c r="S12" t="n">
-        <v>0.004680931924202492</v>
+        <v>0.02973646041232425</v>
       </c>
       <c r="T12" t="n">
-        <v>64.68499699619674</v>
+        <v>57.01162185150356</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[51.36177736967976, 78.00821662271373]</t>
+          <t>[43.73580168501506, 70.28744201799206]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.043609643147647e-12</v>
+        <v>3.989009123017695e-11</v>
       </c>
       <c r="W12" t="n">
-        <v>1.043609643147647e-12</v>
+        <v>3.989009123017695e-11</v>
       </c>
       <c r="X12" t="n">
-        <v>19.79923923923935</v>
+        <v>20.366886886887</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.74158158158168</v>
+        <v>18.17493493493503</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.85689689689702</v>
+        <v>22.55883883883896</v>
       </c>
     </row>
     <row r="13">
@@ -1511,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.84000000000013</v>
+        <v>22.81000000000013</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.003380645389624348</v>
+        <v>0.0002759339098828972</v>
       </c>
       <c r="I13" t="n">
-        <v>0.003380645389624348</v>
+        <v>0.0002759339098828972</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>41.70490889278145</v>
+        <v>52.18436178950511</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[10.427537921142829, 72.98227986442006]</t>
+          <t>[20.725220884925463, 83.64350269408476]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.01010346071171631</v>
+        <v>0.001686307903352002</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01010346071171631</v>
+        <v>0.001686307903352002</v>
       </c>
       <c r="P13" t="n">
-        <v>0.6226580034141929</v>
+        <v>1.113237036407194</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.06918422260157708, 1.3145002294299628]</t>
+          <t>[0.4842895582110396, 1.7421845146033492]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.07655345371531252</v>
+        <v>0.0008761047851781889</v>
       </c>
       <c r="S13" t="n">
-        <v>0.07655345371531252</v>
+        <v>0.0008761047851781889</v>
       </c>
       <c r="T13" t="n">
-        <v>53.20518449727068</v>
+        <v>75.15421197583187</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[36.62925125762146, 69.7811177369199]</t>
+          <t>[58.73556475139506, 91.57285920026868]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>6.359153981172483e-08</v>
+        <v>6.227685034332353e-12</v>
       </c>
       <c r="W13" t="n">
-        <v>6.359153981172483e-08</v>
+        <v>6.227685034332353e-12</v>
       </c>
       <c r="X13" t="n">
-        <v>20.5765765765767</v>
+        <v>18.76858858858869</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.06166166166177</v>
+        <v>16.4853053053054</v>
       </c>
       <c r="Z13" t="n">
-        <v>23.09149149149162</v>
+        <v>21.05187187187199</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.84000000000013</v>
+        <v>22.81000000000013</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01696704056693865</v>
+        <v>0.001139092798733365</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01696704056693865</v>
+        <v>0.001139092798733365</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>38.2349718442976</v>
+        <v>43.62066858081366</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[4.538552664638644, 71.93139102395656]</t>
+          <t>[13.644246312848182, 73.59709084877913]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.02705408745236682</v>
+        <v>0.00529497233125853</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02705408745236682</v>
+        <v>0.00529497233125853</v>
       </c>
       <c r="P14" t="n">
-        <v>1.163552834662886</v>
+        <v>0.8742369946926551</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0.05660527303765228, 2.270500396288119]</t>
+          <t>[0.22013161736865516, 1.5283423720166551]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.03981264536011597</v>
+        <v>0.009939906507158591</v>
       </c>
       <c r="S14" t="n">
-        <v>0.03981264536011597</v>
+        <v>0.009939906507158591</v>
       </c>
       <c r="T14" t="n">
-        <v>68.34483321161593</v>
+        <v>50.16835777774432</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[50.45400717408152, 86.23565924915036]</t>
+          <t>[34.66172308091393, 65.67499247457471]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9.644487430904292e-10</v>
+        <v>5.333325803213995e-08</v>
       </c>
       <c r="W14" t="n">
-        <v>9.644487430904292e-10</v>
+        <v>5.333325803213995e-08</v>
       </c>
       <c r="X14" t="n">
-        <v>18.61037037037048</v>
+        <v>19.63623623623635</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.58650650650659</v>
+        <v>17.26162162162172</v>
       </c>
       <c r="Z14" t="n">
-        <v>22.63423423423437</v>
+        <v>22.01085085085097</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.84000000000013</v>
+        <v>22.81000000000013</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>3.516107723366968e-05</v>
+        <v>6.810889861541547e-06</v>
       </c>
       <c r="I15" t="n">
-        <v>3.516107723366968e-05</v>
+        <v>6.810889861541547e-06</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>51.94825672714819</v>
+        <v>65.31567994306559</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[28.90294030903422, 74.99357314526216]</t>
+          <t>[38.841827947164276, 91.7895319389669]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>4.178810439703362e-05</v>
+        <v>1.019360042908701e-05</v>
       </c>
       <c r="O15" t="n">
-        <v>4.178810439703362e-05</v>
+        <v>1.019360042908701e-05</v>
       </c>
       <c r="P15" t="n">
-        <v>1.50318447288881</v>
+        <v>1.540921321580579</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[0.9497106920761942, 2.0566582537014257]</t>
+          <t>[1.0629212381515014, 2.0189214050096567]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.895847280275476e-06</v>
+        <v>5.777667211326332e-08</v>
       </c>
       <c r="S15" t="n">
-        <v>1.895847280275476e-06</v>
+        <v>5.777667211326332e-08</v>
       </c>
       <c r="T15" t="n">
-        <v>65.86513697576919</v>
+        <v>67.94676886085233</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[51.67253297435025, 80.05774097718813]</t>
+          <t>[51.727076700224615, 84.16646102148005]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>4.127365116346482e-12</v>
+        <v>8.028955278405192e-11</v>
       </c>
       <c r="W15" t="n">
-        <v>4.127365116346482e-12</v>
+        <v>8.028955278405192e-11</v>
       </c>
       <c r="X15" t="n">
-        <v>17.37577577577587</v>
+        <v>17.21595595595605</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.36384384384393</v>
+        <v>15.48066066066075</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.38770770770782</v>
+        <v>18.95125125125136</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>22.84000000000013</v>
+        <v>22.81000000000013</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.004425932381792452</v>
+        <v>2.322255848619115e-06</v>
       </c>
       <c r="I16" t="n">
-        <v>0.004425932381792452</v>
+        <v>2.322255848619115e-06</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>35.41248887416972</v>
+        <v>59.37265519761815</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[8.637339430852336, 62.187638317487114]</t>
+          <t>[35.96023113463269, 82.78507926060361]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.01068340961076819</v>
+        <v>6.42247678683816e-06</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01068340961076819</v>
+        <v>6.42247678683816e-06</v>
       </c>
       <c r="P16" t="n">
-        <v>2.006342455445734</v>
+        <v>1.679289766783733</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[1.1887107337907326, 2.8239741771007347]</t>
+          <t>[1.2138686329185786, 2.144710900648888]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>1.11449440982625e-05</v>
+        <v>4.099908634813687e-09</v>
       </c>
       <c r="S16" t="n">
-        <v>1.11449440982625e-05</v>
+        <v>4.099908634813687e-09</v>
       </c>
       <c r="T16" t="n">
-        <v>49.99623858444271</v>
+        <v>58.52264173143516</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[35.75465900367859, 64.23781816520682]</t>
+          <t>[44.547398335356434, 72.49788512751388]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>8.005938800792478e-09</v>
+        <v>8.112865934606361e-11</v>
       </c>
       <c r="W16" t="n">
-        <v>8.005938800792478e-09</v>
+        <v>8.112865934606361e-11</v>
       </c>
       <c r="X16" t="n">
-        <v>15.54674674674684</v>
+        <v>16.71363363363373</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.57457457457465</v>
+        <v>15.02400400400409</v>
       </c>
       <c r="Z16" t="n">
-        <v>18.51891891891903</v>
+        <v>18.40326326326337</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_2_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_2_square_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.02000000000047</v>
+        <v>25.06000000000048</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>8.593337816287239e-05</v>
+        <v>0.003789902319504601</v>
       </c>
       <c r="I2" t="n">
-        <v>8.593337816287239e-05</v>
+        <v>0.003789902319504601</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>53.67632882321981</v>
+        <v>38.34526037227128</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[24.340641318578164, 83.01201632786146]</t>
+          <t>[12.711134807376993, 63.979385937165574]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0006115349759960864</v>
+        <v>0.004238350254342826</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0006115349759960864</v>
+        <v>0.004238350254342826</v>
       </c>
       <c r="P2" t="n">
-        <v>1.930868758062195</v>
+        <v>1.490605523324887</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.3270791789938867, 2.5346583371305043]</t>
+          <t>[0.5723422051585008, 2.408868841491273]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>6.90180217421954e-08</v>
+        <v>0.002069691341223034</v>
       </c>
       <c r="S2" t="n">
-        <v>6.90180217421954e-08</v>
+        <v>0.002069691341223034</v>
       </c>
       <c r="T2" t="n">
-        <v>71.68074204076299</v>
+        <v>74.49949210464433</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[55.48929162273747, 87.87219245878852]</t>
+          <t>[58.84897077107112, 90.15001343821754]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.662536774915679e-11</v>
+        <v>1.91313631603407e-12</v>
       </c>
       <c r="W2" t="n">
-        <v>1.662536774915679e-11</v>
+        <v>1.91313631603407e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>17.3311711711715</v>
+        <v>19.1148348348352</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.92684684684713</v>
+        <v>15.45241241241271</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.73549549549587</v>
+        <v>22.77725725725769</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.02000000000047</v>
+        <v>25.06000000000048</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.009589872380534e-05</v>
+        <v>2.186365172240912e-07</v>
       </c>
       <c r="I3" t="n">
-        <v>1.009589872380534e-05</v>
+        <v>2.186365172240912e-07</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>48.98107567004523</v>
+        <v>63.56643973793039</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[27.71931290437017, 70.24283843572029]</t>
+          <t>[41.59726263166351, 85.53561684419728]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.019052620145679e-05</v>
+        <v>5.62355014110949e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>3.019052620145679e-05</v>
+        <v>5.62355014110949e-07</v>
       </c>
       <c r="P3" t="n">
-        <v>1.352237078121732</v>
+        <v>1.452868674633117</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.823921196436963, 1.8805529598065007]</t>
+          <t>[1.0251843894597323, 1.8805529598065016]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>5.478438525496898e-06</v>
+        <v>1.748254163658203e-08</v>
       </c>
       <c r="S3" t="n">
-        <v>5.478438525496898e-06</v>
+        <v>1.748254163658203e-08</v>
       </c>
       <c r="T3" t="n">
-        <v>60.85717136621054</v>
+        <v>76.7275042182783</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[47.93415777869399, 73.7801849537271]</t>
+          <t>[62.8289093395094, 90.62609909704719]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.654765296483674e-12</v>
+        <v>1.687538997430238e-14</v>
       </c>
       <c r="W3" t="n">
-        <v>2.654765296483674e-12</v>
+        <v>1.687538997430238e-14</v>
       </c>
       <c r="X3" t="n">
-        <v>19.63531531531569</v>
+        <v>19.26534534534571</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.53153153153187</v>
+        <v>17.5595595595599</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.73909909909951</v>
+        <v>20.97113113113153</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.02000000000047</v>
+        <v>25.06000000000048</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.13841457488806e-07</v>
+        <v>4.745733303324062e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>3.13841457488806e-07</v>
+        <v>4.745733303324062e-05</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>60.91876570400287</v>
+        <v>50.19123105576042</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[37.974830095584906, 83.86270131242082]</t>
+          <t>[24.858763731788528, 75.52369837973231]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.867523763994129e-06</v>
+        <v>0.0002402319096055372</v>
       </c>
       <c r="O4" t="n">
-        <v>2.867523763994129e-06</v>
+        <v>0.0002402319096055372</v>
       </c>
       <c r="P4" t="n">
-        <v>1.289342330302118</v>
+        <v>1.239026532046425</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.8490790955648091, 1.7296055650394262]</t>
+          <t>[0.6603948521059628, 1.8176582119868865]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>4.417204322315627e-07</v>
+        <v>8.694274818110692e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>4.417204322315627e-07</v>
+        <v>8.694274818110692e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>62.5039312101746</v>
+        <v>57.10364778434677</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.022673827163715, 75.98518859318548]</t>
+          <t>[42.65970946552377, 71.54758610316978]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.247935336820774e-12</v>
+        <v>3.906304169021269e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>4.247935336820774e-12</v>
+        <v>3.906304169021269e-10</v>
       </c>
       <c r="X4" t="n">
-        <v>19.88576576576614</v>
+        <v>20.11823823823863</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.13261261261295</v>
+        <v>17.81041041041076</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.63891891891932</v>
+        <v>22.42606606606649</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.02000000000047</v>
+        <v>25.06000000000048</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0002553500664520536</v>
+        <v>1.76245437601974e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0002553500664520536</v>
+        <v>1.76245437601974e-05</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>51.3471075009017</v>
+        <v>46.98769598961461</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[20.368830162201533, 82.32538483960187]</t>
+          <t>[22.750090056282446, 71.22530192294678]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.001698851835206128</v>
+        <v>0.0003134602752155047</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001698851835206128</v>
+        <v>0.0003134602752155047</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9622896416401163</v>
+        <v>1.100658086843271</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.3962369112635775, 1.5283423720166551]</t>
+          <t>[0.5849211547224229, 1.6163950189641199]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.001326070636130439</v>
+        <v>9.104028881101733e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001326070636130439</v>
+        <v>9.104028881101733e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>57.72641187251071</v>
+        <v>55.25966309198086</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[41.377209333205506, 74.0756144118159]</t>
+          <t>[42.5857165248607, 67.93360965910102]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>6.965927168423036e-09</v>
+        <v>2.583600000605202e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>6.965927168423036e-09</v>
+        <v>2.583600000605202e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>21.18810810810851</v>
+        <v>20.6701101101105</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.93405405405441</v>
+        <v>18.61313313313348</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.4421621621626</v>
+        <v>22.72708708708753</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.02000000000047</v>
+        <v>25.06000000000048</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001227991620024627</v>
+        <v>1.94316946416917e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001227991620024627</v>
+        <v>1.94316946416917e-05</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>35.45678358000428</v>
+        <v>52.81326283308975</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[11.60023661464166, 59.313330545366895]</t>
+          <t>[25.334550698442982, 80.29197496773652]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.004468535133266061</v>
+        <v>0.0003475522777915963</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004468535133266061</v>
+        <v>0.0003475522777915963</v>
       </c>
       <c r="P6" t="n">
-        <v>0.6100790538502698</v>
+        <v>0.761026448617347</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.05660527303765406, 1.2767633807381937]</t>
+          <t>[0.2704474156243464, 1.2516054816103477]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0719077861605697</v>
+        <v>0.003114522499904959</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0719077861605697</v>
+        <v>0.003114522499904959</v>
       </c>
       <c r="T6" t="n">
-        <v>53.58563341264479</v>
+        <v>58.13370393527584</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[40.993385762348666, 66.17788106294091]</t>
+          <t>[44.03344041550644, 72.23396745504525]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>5.164935146240168e-11</v>
+        <v>1.250122227958173e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>5.164935146240168e-11</v>
+        <v>1.250122227958173e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>22.59063063063106</v>
+        <v>22.02470470470513</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.93585585585623</v>
+        <v>20.06806806806845</v>
       </c>
       <c r="Z6" t="n">
-        <v>25.24540540540588</v>
+        <v>23.9813413413418</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.02000000000047</v>
+        <v>25.06000000000048</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.30391245917183e-05</v>
+        <v>0.001413677881873965</v>
       </c>
       <c r="I7" t="n">
-        <v>1.30391245917183e-05</v>
+        <v>0.001413677881873965</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>59.94571175488317</v>
+        <v>38.60521550126012</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[29.72103298565699, 90.17039052410935]</t>
+          <t>[15.612568324437945, 61.59786267808229]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.0002371882012612847</v>
+        <v>0.00149917216267248</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0002371882012612847</v>
+        <v>0.00149917216267248</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5975001042863468</v>
+        <v>0.05660527303765406</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.11950002085726918, 1.0755001877154244]</t>
+          <t>[-0.710710650361654, 0.8239211964369622]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.01544312383558477</v>
+        <v>0.8825477906222341</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01544312383558477</v>
+        <v>0.8825477906222341</v>
       </c>
       <c r="T7" t="n">
-        <v>70.29840366933831</v>
+        <v>67.76956797457487</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[54.73700508347652, 85.85980225520011]</t>
+          <t>[53.99877374397515, 81.54036220517459]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>9.198197759019422e-12</v>
+        <v>6.856737400084967e-13</v>
       </c>
       <c r="W7" t="n">
-        <v>9.198197759019422e-12</v>
+        <v>6.856737400084967e-13</v>
       </c>
       <c r="X7" t="n">
-        <v>22.64072072072115</v>
+        <v>24.83423423423471</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.73729729729769</v>
+        <v>21.77385385385427</v>
       </c>
       <c r="Z7" t="n">
-        <v>24.54414414414461</v>
+        <v>27.89461461461514</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.02000000000047</v>
+        <v>25.06000000000048</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.006228941441056346</v>
+        <v>0.0002636647349231191</v>
       </c>
       <c r="I8" t="n">
-        <v>0.006228941441056346</v>
+        <v>0.0002636647349231191</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>30.11037121007906</v>
+        <v>49.44713721081074</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[8.21207550109466, 52.00866691906346]</t>
+          <t>[22.151340671448267, 76.74293375017322]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.008129423892431653</v>
+        <v>0.0006827051239104431</v>
       </c>
       <c r="O8" t="n">
-        <v>0.008129423892431653</v>
+        <v>0.0006827051239104431</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3459211130078854</v>
+        <v>0.1823947686768852</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.5786316799404627, 1.2704739059562336]</t>
+          <t>[-0.45913165908319176, 0.8239211964369622]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.4550287583439983</v>
+        <v>0.5697405886242635</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4550287583439983</v>
+        <v>0.5697405886242635</v>
       </c>
       <c r="T8" t="n">
-        <v>49.51186363445441</v>
+        <v>72.38689246893486</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[37.070869907258945, 61.95285736164988]</t>
+          <t>[56.962611989734796, 87.81117294813492]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.271554138706279e-10</v>
+        <v>2.94586577354039e-12</v>
       </c>
       <c r="W8" t="n">
-        <v>3.271554138706279e-10</v>
+        <v>2.94586577354039e-12</v>
       </c>
       <c r="X8" t="n">
-        <v>23.64252252252297</v>
+        <v>24.33253253253299</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.96090090090127</v>
+        <v>21.77385385385427</v>
       </c>
       <c r="Z8" t="n">
-        <v>27.32414414414466</v>
+        <v>26.89121121121172</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.81000000000013</v>
+        <v>23.05000000000016</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03352612154866552</v>
+        <v>0.004763367382529027</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03352612154866552</v>
+        <v>0.004763367382529027</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>34.79802890085635</v>
+        <v>36.96870981085755</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-1.2623902474658735, 70.85844804917858]</t>
+          <t>[11.929426888988502, 62.00799273272659]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.05821411745729077</v>
+        <v>0.004715620302421453</v>
       </c>
       <c r="O9" t="n">
-        <v>0.05821411745729077</v>
+        <v>0.004715620302421453</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.8176317216550011</v>
+        <v>0.01886842434588498</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.239053022378311, 0.6037895790683088]</t>
+          <t>[-0.9245527929483472, 0.9622896416401172]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.2527491543615259</v>
+        <v>0.9680464421533499</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2527491543615259</v>
+        <v>0.9680464421533499</v>
       </c>
       <c r="T9" t="n">
-        <v>66.60064830222333</v>
+        <v>56.79467913196615</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[48.219929968856796, 84.98136663558986]</t>
+          <t>[41.35623131669702, 72.23312694723528]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>3.692208538907948e-09</v>
+        <v>2.527572595667493e-09</v>
       </c>
       <c r="W9" t="n">
-        <v>3.692208538907948e-09</v>
+        <v>2.527572595667493e-09</v>
       </c>
       <c r="X9" t="n">
-        <v>2.968268268268286</v>
+        <v>22.98078078078094</v>
       </c>
       <c r="Y9" t="n">
-        <v>-2.191951951951964</v>
+        <v>19.51981981981996</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.128488488488536</v>
+        <v>26.44174174174193</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.81000000000013</v>
+        <v>23.05000000000016</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03720388370686301</v>
+        <v>0.0003378223642414024</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03720388370686301</v>
+        <v>0.0003378223642414024</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>34.34139270386621</v>
+        <v>51.29941591855081</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[3.213642251000792, 65.46914315673162]</t>
+          <t>[24.81530680380459, 77.78352503329704]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.03135182433140637</v>
+        <v>0.0003166661549653949</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03135182433140637</v>
+        <v>0.0003166661549653949</v>
       </c>
       <c r="P10" t="n">
-        <v>0.006289474781961069</v>
+        <v>0.01886842434588498</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.2516054816103495, 1.2641844311742716]</t>
+          <t>[-0.6666843268879239, 0.7044211755796939]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.992009540166557</v>
+        <v>0.9560380738764316</v>
       </c>
       <c r="S10" t="n">
-        <v>0.992009540166557</v>
+        <v>0.9560380738764316</v>
       </c>
       <c r="T10" t="n">
-        <v>66.7487811039892</v>
+        <v>58.43871957776456</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[47.959941189287406, 85.537621018691]</t>
+          <t>[41.46681657223172, 75.4106225832974]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>6.000242303016989e-09</v>
+        <v>1.271913951939041e-08</v>
       </c>
       <c r="W10" t="n">
-        <v>6.000242303016989e-09</v>
+        <v>1.271913951939041e-08</v>
       </c>
       <c r="X10" t="n">
-        <v>22.7871671671673</v>
+        <v>22.98078078078094</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.2206006006007</v>
+        <v>20.46581581581596</v>
       </c>
       <c r="Z10" t="n">
-        <v>27.35373373373389</v>
+        <v>25.49574574574593</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.81000000000013</v>
+        <v>23.05000000000016</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0009750211794988806</v>
+        <v>0.02862754612859009</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0009750211794988806</v>
+        <v>0.02862754612859009</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>49.70004369665472</v>
+        <v>31.36699717209997</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[19.53364392789804, 79.8664434654114]</t>
+          <t>[1.8610245113919888, 60.872969832807954]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.001799984570600266</v>
+        <v>0.03771467391996985</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001799984570600266</v>
+        <v>0.03771467391996985</v>
       </c>
       <c r="P11" t="n">
-        <v>0.06918422260157797</v>
+        <v>0.3459211130078854</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.7232895999255753, 0.8616580451287312]</t>
+          <t>[-1.0314738642416934, 1.7233160902574642]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.8612129119275067</v>
+        <v>0.6154484608235409</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8612129119275067</v>
+        <v>0.6154484608235409</v>
       </c>
       <c r="T11" t="n">
-        <v>60.4965274774707</v>
+        <v>67.50790849677973</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[42.53636868253717, 78.45668627240423]</t>
+          <t>[51.212461112643275, 83.8033558809162]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.130231324670717e-08</v>
+        <v>1.094540014179302e-10</v>
       </c>
       <c r="W11" t="n">
-        <v>2.130231324670717e-08</v>
+        <v>1.094540014179302e-10</v>
       </c>
       <c r="X11" t="n">
-        <v>22.55883883883896</v>
+        <v>21.78098098098113</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.68190190190201</v>
+        <v>16.7279779779781</v>
       </c>
       <c r="Z11" t="n">
-        <v>25.43577577577591</v>
+        <v>26.83398398398417</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.81000000000013</v>
+        <v>23.05000000000016</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0005327476473028225</v>
+        <v>1.405540818177897e-07</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0005327476473028225</v>
+        <v>1.405540818177897e-07</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>39.38033899684899</v>
+        <v>62.55965908552309</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[14.270092041589265, 64.49058595210872]</t>
+          <t>[38.04346235686404, 87.07585581418213]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.002830166251793109</v>
+        <v>5.772740633069873e-06</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002830166251793109</v>
+        <v>5.772740633069873e-06</v>
       </c>
       <c r="P12" t="n">
-        <v>0.6729738016698859</v>
+        <v>0.5597632555945777</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.06918422260157708, 1.2767633807381946]</t>
+          <t>[0.14465791998511524, 0.9748685912040402]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.02973646041232425</v>
+        <v>0.009341393979524604</v>
       </c>
       <c r="S12" t="n">
-        <v>0.02973646041232425</v>
+        <v>0.009341393979524604</v>
       </c>
       <c r="T12" t="n">
-        <v>57.01162185150356</v>
+        <v>65.76513643530635</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[43.73580168501506, 70.28744201799206]</t>
+          <t>[52.5068714470507, 79.02340142356199]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.989009123017695e-11</v>
+        <v>5.355715870791755e-13</v>
       </c>
       <c r="W12" t="n">
-        <v>3.989009123017695e-11</v>
+        <v>5.355715870791755e-13</v>
       </c>
       <c r="X12" t="n">
-        <v>20.366886886887</v>
+        <v>20.99649649649665</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.17493493493503</v>
+        <v>19.47367367367381</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.55883883883896</v>
+        <v>22.51931931931948</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.81000000000013</v>
+        <v>23.05000000000016</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0002759339098828972</v>
+        <v>0.0003559667196953997</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0002759339098828972</v>
+        <v>0.0003559667196953997</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>52.18436178950511</v>
+        <v>46.16809949263687</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[20.725220884925463, 83.64350269408476]</t>
+          <t>[18.345783842406252, 73.99041514286749]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.001686307903352002</v>
+        <v>0.001680519422138982</v>
       </c>
       <c r="O13" t="n">
-        <v>0.001686307903352002</v>
+        <v>0.001680519422138982</v>
       </c>
       <c r="P13" t="n">
-        <v>1.113237036407194</v>
+        <v>0.6352369529781168</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.4842895582110396, 1.7421845146033492]</t>
+          <t>[0.01886842434588587, 1.2516054816103477]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.0008761047851781889</v>
+        <v>0.04365984334571404</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0008761047851781889</v>
+        <v>0.04365984334571404</v>
       </c>
       <c r="T13" t="n">
-        <v>75.15421197583187</v>
+        <v>63.83291080877374</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[58.73556475139506, 91.57285920026868]</t>
+          <t>[48.720194511683914, 78.94562710586357]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>6.227685034332353e-12</v>
+        <v>6.374745176174201e-11</v>
       </c>
       <c r="W13" t="n">
-        <v>6.227685034332353e-12</v>
+        <v>6.374745176174201e-11</v>
       </c>
       <c r="X13" t="n">
-        <v>18.76858858858869</v>
+        <v>20.71961961961977</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.4853053053054</v>
+        <v>18.45845845845859</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.05187187187199</v>
+        <v>22.98078078078094</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.81000000000013</v>
+        <v>23.05000000000016</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001139092798733365</v>
+        <v>0.0001570364447457395</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001139092798733365</v>
+        <v>0.0001570364447457395</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>43.62066858081366</v>
+        <v>51.31772892409267</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[13.644246312848182, 73.59709084877913]</t>
+          <t>[24.67170986487261, 77.96374798331273]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.00529497233125853</v>
+        <v>0.0003391873349807284</v>
       </c>
       <c r="O14" t="n">
-        <v>0.00529497233125853</v>
+        <v>0.0003391873349807284</v>
       </c>
       <c r="P14" t="n">
-        <v>0.8742369946926551</v>
+        <v>1.805079262422964</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0.22013161736865516, 1.5283423720166551]</t>
+          <t>[1.1761317842268095, 2.434026740619119]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.009939906507158591</v>
+        <v>6.605425819650179e-07</v>
       </c>
       <c r="S14" t="n">
-        <v>0.009939906507158591</v>
+        <v>6.605425819650179e-07</v>
       </c>
       <c r="T14" t="n">
-        <v>50.16835777774432</v>
+        <v>72.23030701412515</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[34.66172308091393, 65.67499247457471]</t>
+          <t>[56.68281424843879, 87.7777997798115]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>5.333325803213995e-08</v>
+        <v>3.996802888650564e-12</v>
       </c>
       <c r="W14" t="n">
-        <v>5.333325803213995e-08</v>
+        <v>3.996802888650564e-12</v>
       </c>
       <c r="X14" t="n">
-        <v>19.63623623623635</v>
+        <v>16.42802802802814</v>
       </c>
       <c r="Y14" t="n">
-        <v>17.26162162162172</v>
+        <v>14.12072072072082</v>
       </c>
       <c r="Z14" t="n">
-        <v>22.01085085085097</v>
+        <v>18.73533533533547</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.81000000000013</v>
+        <v>23.05000000000016</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>6.810889861541547e-06</v>
+        <v>0.0001071215483525734</v>
       </c>
       <c r="I15" t="n">
-        <v>6.810889861541547e-06</v>
+        <v>0.0001071215483525734</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>65.31567994306559</v>
+        <v>53.26582443206397</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[38.841827947164276, 91.7895319389669]</t>
+          <t>[23.123395646818267, 83.40825321730966]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>1.019360042908701e-05</v>
+        <v>0.0008912114114223435</v>
       </c>
       <c r="O15" t="n">
-        <v>1.019360042908701e-05</v>
+        <v>0.0008912114114223435</v>
       </c>
       <c r="P15" t="n">
-        <v>1.540921321580579</v>
+        <v>0.9748685912040402</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[1.0629212381515014, 2.0189214050096567]</t>
+          <t>[0.3962369112635775, 1.553500271144503]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>5.777667211326332e-08</v>
+        <v>0.001449621653159427</v>
       </c>
       <c r="S15" t="n">
-        <v>5.777667211326332e-08</v>
+        <v>0.001449621653159427</v>
       </c>
       <c r="T15" t="n">
-        <v>67.94676886085233</v>
+        <v>69.29247756935197</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[51.727076700224615, 84.16646102148005]</t>
+          <t>[53.46518235311828, 85.11977278558567]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>8.028955278405192e-11</v>
+        <v>2.295430512333496e-11</v>
       </c>
       <c r="W15" t="n">
-        <v>8.028955278405192e-11</v>
+        <v>2.295430512333496e-11</v>
       </c>
       <c r="X15" t="n">
-        <v>17.21595595595605</v>
+        <v>19.47367367367381</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.48066066066075</v>
+        <v>17.35095095095107</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.95125125125136</v>
+        <v>21.59639639639655</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>22.81000000000013</v>
+        <v>23.05000000000016</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.322255848619115e-06</v>
+        <v>0.001053566873074674</v>
       </c>
       <c r="I16" t="n">
-        <v>2.322255848619115e-06</v>
+        <v>0.001053566873074674</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>59.37265519761815</v>
+        <v>47.30899563797649</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[35.96023113463269, 82.78507926060361]</t>
+          <t>[18.18137661121989, 76.43661466473309]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>6.42247678683816e-06</v>
+        <v>0.002058915792537919</v>
       </c>
       <c r="O16" t="n">
-        <v>6.42247678683816e-06</v>
+        <v>0.002058915792537919</v>
       </c>
       <c r="P16" t="n">
-        <v>1.679289766783733</v>
+        <v>1.842816111114733</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[1.2138686329185786, 2.144710900648888]</t>
+          <t>[1.1383949355350405, 2.5472372866944264]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>4.099908634813687e-09</v>
+        <v>3.73733388703279e-06</v>
       </c>
       <c r="S16" t="n">
-        <v>4.099908634813687e-09</v>
+        <v>3.73733388703279e-06</v>
       </c>
       <c r="T16" t="n">
-        <v>58.52264173143516</v>
+        <v>64.50346237183936</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[44.547398335356434, 72.49788512751388]</t>
+          <t>[47.94718342423023, 81.05974131944849]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>8.112865934606361e-11</v>
+        <v>5.761930932379755e-10</v>
       </c>
       <c r="W16" t="n">
-        <v>8.112865934606361e-11</v>
+        <v>5.761930932379755e-10</v>
       </c>
       <c r="X16" t="n">
-        <v>16.71363363363373</v>
+        <v>16.28958958958971</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.02400400400409</v>
+        <v>13.70540540540551</v>
       </c>
       <c r="Z16" t="n">
-        <v>18.40326326326337</v>
+        <v>18.87377377377391</v>
       </c>
     </row>
   </sheetData>
